--- a/02_TestSuites/1 Automatyczne/15.11.2016.xlsx
+++ b/02_TestSuites/1 Automatyczne/15.11.2016.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>test</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Użytkownik przeszedł pomyślnie proces rejestracji z błędnym adresem emil "6@6"</t>
+  </si>
+  <si>
+    <t>TestForum_02</t>
+  </si>
+  <si>
+    <t>TestForum_03</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +608,28 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
